--- a/数据整理/stocks/A股/上证主板/600399-抚顺特钢.xlsx
+++ b/数据整理/stocks/A股/上证主板/600399-抚顺特钢.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10201,7 +10202,6 @@
           <t>万家科创主题3年封闭运作灵活配置混合C</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
           <t>75.80</t>
@@ -10217,6 +10217,74 @@
       </c>
       <c r="H144" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>143</v>
+      </c>
+      <c r="D2" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>112</v>
+      </c>
+      <c r="D3" t="n">
+        <v>54.34</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600399-抚顺特钢.xlsx
+++ b/数据整理/stocks/A股/上证主板/600399-抚顺特钢.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10230,7 +10231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10241,17 +10242,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10261,14 +10282,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>143</v>
-      </c>
-      <c r="D2" t="n">
-        <v>87</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>200.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.7993</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -10277,13 +10320,6566 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.4694</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>125.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.8637</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>63.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.1308</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.8388</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.9597</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.8385</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.6432</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>545.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.8363</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>62.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7607</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.4578</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>54.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.3849</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>30.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.1704</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>58.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9993</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5289</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5069</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4973</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4860</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4292</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3992</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.3852</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.3400</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2237</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.53</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.1951</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1855</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008314</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>37.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0846</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9280</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9057</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>47.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8980</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>19.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8886</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8851</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>42.88</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8748</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>69.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8694</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8664</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>22.91</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7973</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7601</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011820</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7438</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7427</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7232</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15.91</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.50</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7128</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7060</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.7033</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009998</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>上投摩根慧见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6636</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>70.31</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6186</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6130</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6086</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>78.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.6030</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5836</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>70.83</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5809</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5753</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5387</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4722</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4598</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4548</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4449</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4405</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001490</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4070</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4059</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3886</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3646</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>370027</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>上投摩根智选30混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3585</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005474</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3541</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3306</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3281</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>60.13</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3247</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3222</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012294</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰康优势精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3161</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>75.69</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3156</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3113</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3111</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3103</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.3089</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2887</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2695</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011821</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>35.49</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2418</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>20.88</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2262</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2021</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008315</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006904</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006905</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>75.07</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005475</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>30.02</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>56.89</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006109</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006110</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>20.88</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009475</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>汇丰晋信慧盈混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>27.28</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>55.63</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>001801</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>汇添富达欣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>68.65</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>002165</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>汇添富达欣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>75.07</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>172</v>
+      </c>
+      <c r="D2" t="n">
+        <v>113.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>143</v>
+      </c>
+      <c r="D3" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>112</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>54.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600399-抚顺特钢.xlsx
+++ b/数据整理/stocks/A股/上证主板/600399-抚顺特钢.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16810,7 +16811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16821,17 +16822,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -16841,14 +16862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>172</v>
-      </c>
-      <c r="D2" t="n">
-        <v>113.06</v>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8073</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -16857,14 +16900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>143</v>
-      </c>
-      <c r="D3" t="n">
-        <v>87</v>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3095</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -16873,13 +16938,2261 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9038</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1858</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8866</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>44.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5883</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2242</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9416</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9403</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9352</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8838</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8838</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7962</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7454</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7287</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6576</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6381</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6021</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5825</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5342</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5277</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5199</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3474</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2822</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2206</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>62.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1851</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>48.41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>33.73</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>55.57</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>66.42</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>50.08</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>59</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>172</v>
+      </c>
+      <c r="D3" t="n">
+        <v>113.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>143</v>
+      </c>
+      <c r="D4" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>112</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>54.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600399-抚顺特钢.xlsx
+++ b/数据整理/stocks/A股/上证主板/600399-抚顺特钢.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19107,7 +19108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19118,17 +19119,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -19138,14 +19159,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>59</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.4</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.0905</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -19154,14 +19197,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>172</v>
-      </c>
-      <c r="D3" t="n">
-        <v>113.06</v>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.7684</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -19170,14 +19235,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>143</v>
-      </c>
-      <c r="D4" t="n">
-        <v>87</v>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.5253</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -19186,13 +19273,3889 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>58.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.9835</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.4204</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>118.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2505</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>61.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.0204</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>73.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.9857</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2890</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>71.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0960</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8614</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>44.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.7551</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.7073</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>43.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6847</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>55.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.4437</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>45.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3771</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2543</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2541</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1750</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0892</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0409</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0315</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0242</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9691</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>49.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8983</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>32.38</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8840</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8724</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8388</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8111</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7148</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7083</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6831</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6673</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6432</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4764</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4553</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4225</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4218</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3867</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3492</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3401</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3140</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2905</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2676</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2504</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001490</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2267</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2076</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012041</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015079</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>永赢成长远航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>58.28</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>26.44</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>013035</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富国中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>015080</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>永赢成长远航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>58.28</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>015046</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>015123</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015114</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>016209</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>015124</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票D</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>015196</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>015599</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>103</v>
+      </c>
+      <c r="D2" t="n">
+        <v>73.40000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>59</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>172</v>
+      </c>
+      <c r="D4" t="n">
+        <v>113.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>143</v>
+      </c>
+      <c r="D5" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>112</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>54.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600399-抚顺特钢.xlsx
+++ b/数据整理/stocks/A股/上证主板/600399-抚顺特钢.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>73.40000000000001</v>
+        <v>43.81</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
-        <v>31.4</v>
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="D4" t="n">
-        <v>113.06</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="D5" t="n">
-        <v>87</v>
+        <v>113.06</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>143</v>
+      </c>
+      <c r="D6" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>112</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>54.34</v>
       </c>
     </row>
@@ -566,6 +583,2939 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>164.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.2455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9663</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>66.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4761</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4469</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2405</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>53.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9522</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>59.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5663</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3869</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3347</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3119</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>38.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0390</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9712</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9707</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9246</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8936</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8920</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>32.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8788</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015182</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合D</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8606</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8489</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7781</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6839</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6628</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6580</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5735</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015945</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5411</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4560</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4447</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4253</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定开混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4237</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3761</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3641</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3369</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2926</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2626</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1777</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015079</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>永赢成长远航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012041</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015080</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>永赢成长远航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015181</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定开混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015114</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015197</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票D</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013479</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015196</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合 O</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>016815</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4511,7 +7461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6807,7 +9757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13386,7 +16336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18863,7 +21813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600399-抚顺特钢.xlsx
+++ b/数据整理/stocks/A股/上证主板/600399-抚顺特钢.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D2" t="n">
-        <v>43.81</v>
+        <v>48.42</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D3" t="n">
-        <v>73.40000000000001</v>
+        <v>43.81</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="D4" t="n">
-        <v>31.4</v>
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="D5" t="n">
-        <v>113.06</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="D6" t="n">
-        <v>87</v>
+        <v>113.06</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>143</v>
+      </c>
+      <c r="D7" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>112</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>54.34</v>
       </c>
     </row>
@@ -583,6 +600,3326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>144.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.8524</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6644</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>65.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3776</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1393</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0676</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8839</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6302</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5411</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3994</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3203</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全合兴混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>55.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3176</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>39.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2956</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>60.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2437</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013516</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>60.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2437</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>31.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2166</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>30.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0369</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0017</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015945</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9500</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9286</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8866</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>34.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8780</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8628</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8519</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8172</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8065</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6405</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6392</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6255</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5532</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5230</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4457</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4297</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013552</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富成长领先混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>69.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4151</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定开混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4095</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3554</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3420</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3384</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3371</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2607</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013553</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富成长领先混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>69.95</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2386</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>68.73</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015124</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票D</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001490</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>69.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012041</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>66.35</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015159</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>58.03</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015789</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>永赢高端装备智选混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012287</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东海启航6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定开混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>58.03</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015123</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>015790</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>永赢高端装备智选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013377</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东海启航6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>015114</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>016815</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>015196</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>015197</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票D</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合 O</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>兴全合兴混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013515</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>71.25</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>-0.0002</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3515,7 +6852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7461,7 +10798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9757,7 +13094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16336,7 +19673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21813,7 +25150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
